--- a/test/files/workbook3.xlsx
+++ b/test/files/workbook3.xlsx
@@ -231,8 +231,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Thinking about your Condition Y patients on a GA (gamma antagonist), what percent are currently on the following therapies? (Your answers should sum to 100)
-</t>
+    <t>Thinking about your Condition Y patients on a GA (gamma antagonist), what percent are currently on the following therapies? (Your answers should sum to 100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -828,11 +827,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Now, thinking about the current Product B device, please can you rate the new extended release device on the following features?  Using a &lt;b&gt;7-point scale&lt;/b&gt;, where;
-&lt;b&gt;-3 is significantly worse&lt;/b&gt; than the current device
-&lt;b&gt;0 is the same&lt;/b&gt; as the current device
-&lt;b&gt;+3 is significantly better &lt;/b&gt;than the current device
-</t>
+    <t>Now, thinking about the current Product B device, please can you rate the new extended release device on the following features?  Using a &lt;b&gt;7-point scale&lt;/b&gt;, where;&lt;b&gt;-3 is significantly worse&lt;/b&gt; than the current device&lt;b&gt;0 is the same&lt;/b&gt; as the current device&lt;b&gt;+3 is significantly better &lt;/b&gt;than the current device</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
